--- a/Data/EC/NIT-9009746200.xlsx
+++ b/Data/EC/NIT-9009746200.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A6FFF87-6EC5-443D-B4FA-D35ABB3F265C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7493614-3155-4D07-A3D2-28836FC8EF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6570CBDA-F9C7-4AC8-B617-40C674635CBC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{28150A5D-A981-40C9-B3B2-A659939467E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,7 +434,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AC32BC6-2F67-8406-3A71-9F22B96DD4F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02DDEC35-DB16-D360-C678-E24E196A7A3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -785,28 +785,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32473D20-424E-4072-B83C-C6AE3366FE24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9489F6F4-CEF4-4F3C-AA5B-7BD66DEA52DF}">
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="22"/>
       <c r="D2" s="23" t="s">
@@ -819,7 +819,7 @@
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="22"/>
       <c r="D3" s="24"/>
@@ -830,7 +830,7 @@
       <c r="I3" s="24"/>
       <c r="J3" s="24"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="22"/>
       <c r="D4" s="24"/>
@@ -841,7 +841,7 @@
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="22"/>
       <c r="D5" s="25"/>
@@ -852,8 +852,8 @@
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
@@ -868,8 +868,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -884,8 +884,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
@@ -900,8 +900,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>15</v>
       </c>
@@ -920,7 +920,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -949,7 +949,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -972,7 +972,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="26" t="s">
         <v>21</v>
       </c>
@@ -983,7 +983,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="26" t="s">
         <v>20</v>
       </c>

--- a/Data/EC/NIT-9009746200.xlsx
+++ b/Data/EC/NIT-9009746200.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7493614-3155-4D07-A3D2-28836FC8EF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBB867DF-4EC3-4102-82B2-3A59357F8C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{28150A5D-A981-40C9-B3B2-A659939467E2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14F3D4B6-0EF2-4637-9AF5-6111DA72007B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,7 +170,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -183,9 +185,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -340,23 +340,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -378,10 +378,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -419,13 +419,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>667900</xdr:colOff>
+      <xdr:colOff>496450</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>430650</xdr:colOff>
+      <xdr:colOff>259200</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -434,7 +434,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02DDEC35-DB16-D360-C678-E24E196A7A3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{173A799F-29A1-51FB-9B02-C8D59862A8B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -456,7 +456,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="921900" y="246450"/>
+          <a:off x="750450" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -785,28 +785,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9489F6F4-CEF4-4F3C-AA5B-7BD66DEA52DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E20515-CEC4-4E82-9898-4A90E0C2AA73}">
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="22"/>
       <c r="D2" s="23" t="s">
@@ -819,7 +819,7 @@
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="22"/>
       <c r="D3" s="24"/>
@@ -830,7 +830,7 @@
       <c r="I3" s="24"/>
       <c r="J3" s="24"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="22"/>
       <c r="D4" s="24"/>
@@ -841,7 +841,7 @@
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="22"/>
       <c r="D5" s="25"/>
@@ -852,8 +852,8 @@
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
@@ -868,8 +868,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -884,8 +884,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
@@ -900,8 +900,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>15</v>
       </c>
@@ -920,7 +920,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -949,7 +949,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -972,7 +972,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="26" t="s">
         <v>21</v>
       </c>
@@ -983,7 +983,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="26" t="s">
         <v>20</v>
       </c>
